--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -37,6 +37,9 @@
     <t>MOV</t>
   </si>
   <si>
+    <t>pixelUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Sprite/Foe/PixelEvilGod</t>
   </si>
 </sst>
 </file>
@@ -1014,18 +1020,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G4"/>
+  <dimension ref="A2:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="23.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,36 +1054,42 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1092,6 +1105,9 @@
       </c>
       <c r="G4">
         <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -71,34 +71,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -112,14 +84,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,6 +128,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,7 +188,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,49 +224,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,121 +362,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,21 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +447,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,148 +520,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -675,52 +675,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1023,7 +1023,7 @@
   <dimension ref="A2:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1092,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>6</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>MOV</t>
+  </si>
+  <si>
+    <t>skillID</t>
   </si>
   <si>
     <t>pixelUrl</t>
@@ -1020,19 +1023,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="23.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="23.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,39 +1060,45 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -1106,8 +1115,11 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
+      <c r="H4">
+        <v>9001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -1026,7 +1026,7 @@
   <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>5</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -1026,7 +1026,7 @@
   <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1104,10 +1104,10 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>5</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="18940" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1101,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>9</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18940" windowHeight="8040"/>
+    <workbookView windowWidth="15860" windowHeight="10840"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>LinkedList</t>
   </si>
   <si>
-    <t>Sprite/Foe/PixelEvilGod</t>
+    <t>PixelEvilGod</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
   <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15860" windowHeight="10840"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1101,16 +1101,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>3</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -1101,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>4</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15830" windowHeight="9200"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,15 @@
     <t>skillID</t>
   </si>
   <si>
+    <t>generateType</t>
+  </si>
+  <si>
+    <t>pos0</t>
+  </si>
+  <si>
+    <t>pos1</t>
+  </si>
+  <si>
     <t>pixelUrl</t>
   </si>
   <si>
@@ -49,10 +58,19 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum|FoeGenerateType</t>
+  </si>
+  <si>
     <t>LinkedList</t>
   </si>
   <si>
+    <t>RowRange</t>
+  </si>
+  <si>
     <t>PixelEvilGod</t>
+  </si>
+  <si>
+    <t>Resume</t>
   </si>
 </sst>
 </file>
@@ -1023,19 +1041,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I4"/>
+  <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I5" sqref="I5:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="23.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="21.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="23.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,42 +1082,60 @@
       <c r="I2" t="s">
         <v>8</v>
       </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1119,7 +1156,83 @@
         <v>9001</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>9001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>1011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>9002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15830" windowHeight="9200"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Resume</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>PixelEvilBoss</t>
   </si>
 </sst>
 </file>
@@ -1041,13 +1047,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
     <col min="9" max="9" width="21.8181818181818" customWidth="1"/>
@@ -1159,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -1194,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -1229,10 +1235,45 @@
         <v>16</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>1021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>9001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="14890" windowHeight="8620"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -73,10 +73,37 @@
     <t>Resume</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>HR_Normal</t>
   </si>
   <si>
     <t>PixelEvilBoss</t>
+  </si>
+  <si>
+    <t>HR_Red</t>
+  </si>
+  <si>
+    <t>HR_Blue</t>
+  </si>
+  <si>
+    <t>HR_Dark</t>
+  </si>
+  <si>
+    <t>Interviewer_F</t>
+  </si>
+  <si>
+    <t>Interviewer_M</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Secretary_F</t>
+  </si>
+  <si>
+    <t>Secretary_M</t>
+  </si>
+  <si>
+    <t>Interview</t>
   </si>
 </sst>
 </file>
@@ -1047,13 +1074,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L7"/>
+  <dimension ref="A2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
     <col min="9" max="9" width="21.8181818181818" customWidth="1"/>
@@ -1252,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1273,6 +1300,321 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>1022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>9102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>1023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>9103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>1024</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>9104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>1031</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>9201</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>1032</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>9202</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>1041</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>150</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>9301</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>1042</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>9201</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>1043</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>9202</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>1099</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>9901</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14890" windowHeight="8620"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,12 @@
     <t>skillID</t>
   </si>
   <si>
+    <t>findTargetType</t>
+  </si>
+  <si>
+    <t>focusType</t>
+  </si>
+  <si>
     <t>generateType</t>
   </si>
   <si>
@@ -58,12 +64,24 @@
     <t>string</t>
   </si>
   <si>
+    <t>enum|FoeFindTargetType</t>
+  </si>
+  <si>
+    <t>enum|FoeFocusType</t>
+  </si>
+  <si>
     <t>enum|FoeGenerateType</t>
   </si>
   <si>
     <t>LinkedList</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
     <t>RowRange</t>
   </si>
   <si>
@@ -73,19 +91,31 @@
     <t>Resume</t>
   </si>
   <si>
+    <t>PixelEvilBoss</t>
+  </si>
+  <si>
     <t>HR_Normal</t>
   </si>
   <si>
-    <t>PixelEvilBoss</t>
+    <t>pixelHR_Black</t>
   </si>
   <si>
     <t>HR_Red</t>
   </si>
   <si>
+    <t>pixelHR_Red</t>
+  </si>
+  <si>
     <t>HR_Blue</t>
   </si>
   <si>
+    <t>pixelHR_Blue</t>
+  </si>
+  <si>
     <t>HR_Dark</t>
+  </si>
+  <si>
+    <t>pixelHR_Purple</t>
   </si>
   <si>
     <t>Interviewer_F</t>
@@ -1074,20 +1104,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L16"/>
+  <dimension ref="A2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="21.8181818181818" customWidth="1"/>
-    <col min="12" max="12" width="23.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="21.8181818181818" customWidth="1"/>
+    <col min="14" max="14" width="23.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,51 +1156,63 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1189,21 +1233,27 @@
         <v>9001</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
-        <v>17</v>
+      <c r="N4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1224,21 +1274,27 @@
         <v>9001</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>17</v>
+      <c r="N5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1011</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1259,21 +1315,27 @@
         <v>9002</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
-        <v>17</v>
+      <c r="N6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1021</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -1291,24 +1353,30 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>9001</v>
+        <v>9101</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
-        <v>20</v>
+      <c r="N7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1022</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -1329,21 +1397,27 @@
         <v>9102</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
-        <v>20</v>
+      <c r="N8" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>1023</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -1364,21 +1438,27 @@
         <v>9103</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="L9" t="s">
-        <v>20</v>
+      <c r="N9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -1399,21 +1479,27 @@
         <v>9104</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="L10" t="s">
-        <v>20</v>
+      <c r="N10" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -1434,21 +1520,27 @@
         <v>9201</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
-        <v>20</v>
+      <c r="N11" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -1469,21 +1561,27 @@
         <v>9202</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
-        <v>20</v>
+      <c r="N12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -1504,21 +1602,27 @@
         <v>9301</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
-        <v>20</v>
+      <c r="N13" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -1539,21 +1643,27 @@
         <v>9201</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
-        <v>20</v>
+      <c r="N14" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -1574,21 +1684,27 @@
         <v>9202</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>20</v>
+      <c r="N15" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>200</v>
@@ -1609,13 +1725,19 @@
         <v>9901</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>20</v>
+      <c r="N16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="16930" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Interviewer_F</t>
+  </si>
+  <si>
+    <t>Farthest</t>
   </si>
   <si>
     <t>Interviewer_M</t>
@@ -1107,7 +1110,7 @@
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1502,7 +1505,7 @@
         <v>34</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1520,7 +1523,7 @@
         <v>9201</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -1532,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1540,7 +1543,7 @@
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -1581,7 +1584,7 @@
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -1622,7 +1625,7 @@
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -1663,7 +1666,7 @@
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -1704,7 +1707,7 @@
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>200</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Interview</t>
+  </si>
+  <si>
+    <t>Foe</t>
+  </si>
+  <si>
+    <t>Pressure</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:N16"/>
+  <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1646,7 +1652,7 @@
         <v>9201</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1731,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>22</v>
@@ -1741,6 +1747,47 @@
       </c>
       <c r="N16" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>1098</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>9201</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -1116,7 +1116,7 @@
   <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1716,7 +1716,7 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1757,10 +1757,10 @@
         <v>42</v>
       </c>
       <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
         <v>10</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16930" windowHeight="11480"/>
+    <workbookView windowWidth="16080" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1224,7 +1224,7 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>4</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>HP</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>LinkedList</t>
   </si>
   <si>
+    <t>Attack near and dying unit with melee attack.</t>
+  </si>
+  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -91,45 +97,69 @@
     <t>Resume</t>
   </si>
   <si>
+    <t>Can do ranged magic attack.</t>
+  </si>
+  <si>
     <t>PixelEvilBoss</t>
   </si>
   <si>
     <t>HR_Normal</t>
   </si>
   <si>
+    <t>Can do ranged physical attack.</t>
+  </si>
+  <si>
     <t>pixelHR_Black</t>
   </si>
   <si>
     <t>HR_Red</t>
   </si>
   <si>
+    <t>Can spell fire magic and apply .</t>
+  </si>
+  <si>
     <t>pixelHR_Red</t>
   </si>
   <si>
     <t>HR_Blue</t>
   </si>
   <si>
+    <t>Can spell water magic and recover HP.</t>
+  </si>
+  <si>
     <t>pixelHR_Blue</t>
   </si>
   <si>
     <t>HR_Dark</t>
   </si>
   <si>
+    <t>Can spell gravity magic to reduce movement.</t>
+  </si>
+  <si>
     <t>pixelHR_Purple</t>
   </si>
   <si>
     <t>Interviewer_F</t>
   </si>
   <si>
+    <t>Attack range is super long and will hit farthest unit first.</t>
+  </si>
+  <si>
     <t>Farthest</t>
   </si>
   <si>
     <t>Interviewer_M</t>
   </si>
   <si>
+    <t>Can move fast.</t>
+  </si>
+  <si>
     <t>CEO</t>
   </si>
   <si>
+    <t>Can deal high damage but move slow.</t>
+  </si>
+  <si>
     <t>Secretary_F</t>
   </si>
   <si>
@@ -137,6 +167,9 @@
   </si>
   <si>
     <t>Interview</t>
+  </si>
+  <si>
+    <t>Can summon pressure.</t>
   </si>
   <si>
     <t>Foe</t>
@@ -1113,22 +1146,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:N17"/>
+  <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="21.8181818181818" customWidth="1"/>
-    <col min="14" max="14" width="23.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="60.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="21.8181818181818" customWidth="1"/>
+    <col min="15" max="15" width="23.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,34 +1205,37 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -1207,519 +1244,552 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
       </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9001</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="N4" t="s">
-        <v>23</v>
+      <c r="O4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9001</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
-        <v>23</v>
+      <c r="O5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1011</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>9002</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>9002</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
+      <c r="O6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1021</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
         <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9101</v>
       </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>27</v>
+      <c r="O7" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1022</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9102</v>
       </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
-        <v>29</v>
+      <c r="O8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1023</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9103</v>
       </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="N9" t="s">
-        <v>31</v>
+      <c r="O9" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>9104</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
-        <v>33</v>
+      <c r="O10" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
         <v>30</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>9201</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>27</v>
+      <c r="O11" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
         <v>100</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>9202</v>
       </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
-        <v>25</v>
+      <c r="O12" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
         <v>150</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>9301</v>
       </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
-        <v>25</v>
+      <c r="O13" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
+        <v>48</v>
+      </c>
+      <c r="D14">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9201</v>
       </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
-        <v>25</v>
+      <c r="O14" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15">
+        <v>49</v>
+      </c>
+      <c r="D15">
         <v>50</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>9202</v>
       </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>25</v>
+      <c r="O15" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
         <v>180</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1731,63 +1801,66 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>9901</v>
       </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16">
+        <v>52</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" t="s">
-        <v>25</v>
+      <c r="O16" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
+        <v>53</v>
+      </c>
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>9201</v>
       </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
-        <v>23</v>
+      <c r="O17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,9 @@
     <t>pixelUrl</t>
   </si>
   <si>
+    <t>aniUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>PixelEvilGod</t>
   </si>
   <si>
+    <t>ani_pf_LinkedList</t>
+  </si>
+  <si>
     <t>Resume</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>PixelEvilBoss</t>
+  </si>
+  <si>
+    <t>ani_pf_Resume</t>
   </si>
   <si>
     <t>HR_Normal</t>
@@ -1146,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1160,9 +1169,10 @@
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="21.8181818181818" customWidth="1"/>
     <col min="15" max="15" width="23.7272727272727" customWidth="1"/>
+    <col min="16" max="16" width="13.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,63 +1218,69 @@
       <c r="O2" t="s">
         <v>14</v>
       </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
+      <c r="P3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1285,30 +1301,33 @@
         <v>9001</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1329,30 +1348,33 @@
         <v>9001</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1011</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1373,19 +1395,22 @@
         <v>9002</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6">
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1393,10 +1418,10 @@
         <v>1021</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1417,19 +1442,19 @@
         <v>9101</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1437,10 +1462,10 @@
         <v>1022</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>25</v>
@@ -1461,19 +1486,19 @@
         <v>9102</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1481,10 +1506,10 @@
         <v>1023</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -1505,19 +1530,19 @@
         <v>9103</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1525,10 +1550,10 @@
         <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -1549,19 +1574,19 @@
         <v>9104</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1569,10 +1594,10 @@
         <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -1593,19 +1618,19 @@
         <v>9201</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1613,10 +1638,10 @@
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1637,19 +1662,19 @@
         <v>9202</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1657,10 +1682,10 @@
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -1681,19 +1706,19 @@
         <v>9301</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1701,7 +1726,7 @@
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -1722,19 +1747,19 @@
         <v>9201</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1742,7 +1767,7 @@
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -1763,19 +1788,19 @@
         <v>9202</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1783,10 +1808,10 @@
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>180</v>
@@ -1807,19 +1832,19 @@
         <v>9901</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1827,7 +1852,7 @@
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1848,19 +1873,19 @@
         <v>9201</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -157,10 +157,16 @@
     <t>Farthest</t>
   </si>
   <si>
+    <t>ani_pf_InterviewF</t>
+  </si>
+  <si>
     <t>Interviewer_M</t>
   </si>
   <si>
     <t>Can move fast.</t>
+  </si>
+  <si>
+    <t>ani_pf_InterviewM</t>
   </si>
   <si>
     <t>CEO</t>
@@ -1157,8 +1163,10 @@
   <sheetPr/>
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1169,7 +1177,7 @@
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="21.8181818181818" customWidth="1"/>
     <col min="15" max="15" width="23.7272727272727" customWidth="1"/>
-    <col min="16" max="16" width="13.9090909090909" customWidth="1"/>
+    <col min="16" max="16" width="20.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
@@ -1589,7 +1597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>1031</v>
       </c>
@@ -1632,16 +1640,19 @@
       <c r="O11" t="s">
         <v>34</v>
       </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1675,6 +1686,9 @@
       </c>
       <c r="O12" t="s">
         <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1682,10 +1696,10 @@
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -1726,7 +1740,7 @@
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -1767,7 +1781,7 @@
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -1808,10 +1822,10 @@
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>180</v>
@@ -1835,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -1852,7 +1866,7 @@
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>8</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +121,9 @@
     <t>pixelHR_Black</t>
   </si>
   <si>
+    <t>ani_pf_HRGray</t>
+  </si>
+  <si>
     <t>HR_Red</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>pixelHR_Red</t>
   </si>
   <si>
+    <t>ani_pf_HRRed</t>
+  </si>
+  <si>
     <t>HR_Blue</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>pixelHR_Blue</t>
   </si>
   <si>
+    <t>ani_pf_HRBlue</t>
+  </si>
+  <si>
     <t>HR_Dark</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
   </si>
   <si>
     <t>pixelHR_Purple</t>
+  </si>
+  <si>
+    <t>ani_pf_HRPurple</t>
   </si>
   <si>
     <t>Interviewer_F</t>
@@ -1166,7 +1178,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P11" sqref="P11"/>
+      <selection pane="topRight" activeCell="P15" sqref="P14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1421,7 +1433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1021</v>
       </c>
@@ -1464,16 +1476,19 @@
       <c r="O7" t="s">
         <v>34</v>
       </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>1022</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>25</v>
@@ -1506,18 +1521,21 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>1023</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -1550,18 +1568,21 @@
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -1594,7 +1615,10 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1602,10 +1626,10 @@
         <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -1626,7 +1650,7 @@
         <v>9201</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
@@ -1641,7 +1665,7 @@
         <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1649,10 +1673,10 @@
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1688,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1696,10 +1720,10 @@
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -1735,12 +1759,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -1761,7 +1785,7 @@
         <v>9201</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
         <v>24</v>
@@ -1775,13 +1799,16 @@
       <c r="O14" t="s">
         <v>30</v>
       </c>
+      <c r="P14" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -1815,6 +1842,9 @@
       </c>
       <c r="O15" t="s">
         <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1822,10 +1852,10 @@
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>180</v>
@@ -1849,7 +1879,7 @@
         <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -1866,7 +1896,7 @@
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1887,7 +1917,7 @@
         <v>9201</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
         <v>24</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Can deal high damage but move slow.</t>
+  </si>
+  <si>
+    <t>ani_pf_CEO</t>
   </si>
   <si>
     <t>Secretary_F</t>
@@ -1178,7 +1181,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P15" sqref="P14:P15"/>
+      <selection pane="topRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1715,7 +1718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>1041</v>
       </c>
@@ -1757,6 +1760,9 @@
       </c>
       <c r="O13" t="s">
         <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1764,7 +1770,7 @@
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -1808,7 +1814,7 @@
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -1852,10 +1858,10 @@
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>180</v>
@@ -1879,7 +1885,7 @@
         <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -1896,7 +1902,7 @@
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>8</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -1181,7 +1181,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P13" sqref="P13"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1729,7 +1729,7 @@
         <v>56</v>
       </c>
       <c r="D13">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>1</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Foe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +60,9 @@
   </si>
   <si>
     <t>focusType</t>
+  </si>
+  <si>
+    <t>foeTraitID</t>
   </si>
   <si>
     <t>generateType</t>
@@ -211,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1176,12 +1192,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:P17"/>
+  <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="L5" sqref="L5:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1190,12 +1206,13 @@
     <col min="3" max="3" width="60.2727272727273" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="21.8181818181818" customWidth="1"/>
-    <col min="15" max="15" width="23.7272727272727" customWidth="1"/>
-    <col min="16" max="16" width="20.5454545454545" customWidth="1"/>
+    <col min="12" max="12" width="12.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="21.8181818181818" customWidth="1"/>
+    <col min="16" max="16" width="23.7272727272727" customWidth="1"/>
+    <col min="17" max="17" width="20.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,66 +1261,72 @@
       <c r="P2" t="s">
         <v>15</v>
       </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1324,33 +1347,36 @@
         <v>9001</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4">
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
         <v>3</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
       </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1371,33 +1397,36 @@
         <v>9001</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="M5">
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
         <v>3</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
       </c>
       <c r="P5" t="s">
         <v>27</v>
       </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1011</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1418,33 +1447,36 @@
         <v>9002</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="M6">
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
         <v>3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>30</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
       </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1021</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -1465,33 +1497,36 @@
         <v>9101</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
         <v>25</v>
       </c>
-      <c r="M7">
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7">
         <v>3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
       </c>
       <c r="P7" t="s">
         <v>35</v>
       </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>1022</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>25</v>
@@ -1512,33 +1547,36 @@
         <v>9102</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="M8">
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8">
         <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
       </c>
+      <c r="Q8" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>1023</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -1559,33 +1597,36 @@
         <v>9103</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="M9">
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
         <v>3</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
       </c>
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -1606,33 +1647,36 @@
         <v>9104</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
         <v>25</v>
       </c>
-      <c r="M10">
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
         <v>3</v>
-      </c>
-      <c r="O10" t="s">
-        <v>46</v>
       </c>
       <c r="P10" t="s">
         <v>47</v>
       </c>
+      <c r="Q10" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -1653,33 +1697,36 @@
         <v>9201</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
         <v>25</v>
       </c>
-      <c r="M11">
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
-        <v>34</v>
-      </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1700,33 +1747,36 @@
         <v>9202</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="M12">
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
-        <v>30</v>
-      </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>80</v>
@@ -1747,30 +1797,33 @@
         <v>9301</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="M13">
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
       <c r="P13" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -1791,30 +1844,33 @@
         <v>9201</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
         <v>25</v>
       </c>
-      <c r="M14">
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -1835,33 +1891,36 @@
         <v>9202</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" t="s">
         <v>25</v>
       </c>
-      <c r="M15">
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" t="s">
-        <v>30</v>
-      </c>
       <c r="P15" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>180</v>
@@ -1882,27 +1941,30 @@
         <v>9901</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16">
+        <v>63</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="O16" t="s">
-        <v>30</v>
+      <c r="P16" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1923,19 +1985,22 @@
         <v>9201</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
         <v>25</v>
       </c>
-      <c r="M17">
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
-        <v>26</v>
+      <c r="P17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -209,6 +209,12 @@
     <t>Secretary_F</t>
   </si>
   <si>
+    <t>HPLowest</t>
+  </si>
+  <si>
+    <t>Foe</t>
+  </si>
+  <si>
     <t>Secretary_M</t>
   </si>
   <si>
@@ -216,9 +222,6 @@
   </si>
   <si>
     <t>Can summon pressure.</t>
-  </si>
-  <si>
-    <t>Foe</t>
   </si>
   <si>
     <t>Pressure</t>
@@ -1197,7 +1200,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L5" sqref="L5:L17"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1482,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1532,7 +1535,7 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1582,7 +1585,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1691,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>9201</v>
@@ -1741,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>9202</v>
@@ -1779,7 +1782,7 @@
         <v>57</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1791,7 +1794,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>9301</v>
@@ -1826,28 +1829,28 @@
         <v>59</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>9201</v>
+        <v>9302</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1870,7 +1873,7 @@
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -1917,10 +1920,10 @@
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>180</v>
@@ -1935,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>9901</v>
@@ -1944,7 +1947,7 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1964,7 +1967,7 @@
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>8</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -1200,7 +1200,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -1200,7 +1200,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1485,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>1</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -209,6 +209,9 @@
     <t>Secretary_F</t>
   </si>
   <si>
+    <t>Can heal.</t>
+  </si>
+  <si>
     <t>HPLowest</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
     <t>Secretary_M</t>
   </si>
   <si>
+    <t>Get 1 level Angry when turn start.</t>
+  </si>
+  <si>
     <t>Interview</t>
   </si>
   <si>
@@ -225,6 +231,9 @@
   </si>
   <si>
     <t>Pressure</t>
+  </si>
+  <si>
+    <t>Can deal damage according to left HP.</t>
   </si>
 </sst>
 </file>
@@ -1198,9 +1207,9 @@
   <dimension ref="A2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1806,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>1001</v>
       </c>
       <c r="M13" t="s">
         <v>26</v>
@@ -1828,6 +1837,9 @@
       <c r="B14" t="s">
         <v>59</v>
       </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
       <c r="D14">
         <v>25</v>
       </c>
@@ -1847,10 +1859,10 @@
         <v>9302</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1873,19 +1885,22 @@
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -1900,7 +1915,7 @@
         <v>25</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>1002</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -1920,13 +1935,13 @@
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1947,7 +1962,7 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1967,13 +1982,16 @@
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1985,10 +2003,10 @@
         <v>5</v>
       </c>
       <c r="I17">
-        <v>9201</v>
+        <v>9902</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Can deal damage according to left HP.</t>
+  </si>
+  <si>
+    <t>Sadness</t>
   </si>
 </sst>
 </file>
@@ -1204,12 +1207,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Q17"/>
+  <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1971,6 +1974,9 @@
         <v>26</v>
       </c>
       <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
@@ -2022,6 +2028,50 @@
       </c>
       <c r="P17" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <v>1097</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>9302</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -1210,9 +1210,9 @@
   <dimension ref="A2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E18" sqref="E18"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1744,7 +1744,7 @@
         <v>54</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1794,7 +1794,7 @@
         <v>57</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1894,7 +1894,7 @@
         <v>64</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>66</v>
       </c>
       <c r="D16">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>69</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>5</v>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -143,7 +143,7 @@
     <t>HR_Red</t>
   </si>
   <si>
-    <t>Can spell fire magic and apply .</t>
+    <t>Can spell fire magic and apply Burning.</t>
   </si>
   <si>
     <t>pixelHR_Red</t>
@@ -1212,7 +1212,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -27,15 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
+    <t>name_EN</t>
+  </si>
+  <si>
+    <t>name_CN</t>
+  </si>
+  <si>
+    <t>desc_EN</t>
+  </si>
+  <si>
+    <t>desc_CN</t>
   </si>
   <si>
     <t>HP</t>
@@ -98,6 +104,9 @@
     <t>LinkedList</t>
   </si>
   <si>
+    <t>链表</t>
+  </si>
+  <si>
     <t>Attack near and dying unit with melee attack.</t>
   </si>
   <si>
@@ -119,6 +128,9 @@
     <t>Resume</t>
   </si>
   <si>
+    <t>简历</t>
+  </si>
+  <si>
     <t>Can do ranged magic attack.</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
     <t>HR_Normal</t>
   </si>
   <si>
+    <t>普通HR</t>
+  </si>
+  <si>
     <t>Can do ranged physical attack.</t>
   </si>
   <si>
@@ -143,6 +158,9 @@
     <t>HR_Red</t>
   </si>
   <si>
+    <t>红色HR</t>
+  </si>
+  <si>
     <t>Can spell fire magic and apply Burning.</t>
   </si>
   <si>
@@ -155,6 +173,9 @@
     <t>HR_Blue</t>
   </si>
   <si>
+    <t>蓝色HR</t>
+  </si>
+  <si>
     <t>Can spell water magic and recover HP.</t>
   </si>
   <si>
@@ -167,6 +188,9 @@
     <t>HR_Dark</t>
   </si>
   <si>
+    <t>黑色HR</t>
+  </si>
+  <si>
     <t>Can spell gravity magic to reduce movement.</t>
   </si>
   <si>
@@ -179,6 +203,9 @@
     <t>Interviewer_F</t>
   </si>
   <si>
+    <t>面试官F</t>
+  </si>
+  <si>
     <t>Attack range is super long and will hit farthest unit first.</t>
   </si>
   <si>
@@ -191,6 +218,9 @@
     <t>Interviewer_M</t>
   </si>
   <si>
+    <t>面试官M</t>
+  </si>
+  <si>
     <t>Can move fast.</t>
   </si>
   <si>
@@ -209,7 +239,13 @@
     <t>Secretary_F</t>
   </si>
   <si>
-    <t>Can heal.</t>
+    <t>秘书F</t>
+  </si>
+  <si>
+    <t>Can heal unit with low HP.</t>
+  </si>
+  <si>
+    <t>能够治疗血少的单位。</t>
   </si>
   <si>
     <t>HPLowest</t>
@@ -221,22 +257,34 @@
     <t>Secretary_M</t>
   </si>
   <si>
+    <t>秘书M</t>
+  </si>
+  <si>
     <t>Get 1 level Angry when turn start.</t>
   </si>
   <si>
     <t>Interview</t>
   </si>
   <si>
+    <t>面试的概念</t>
+  </si>
+  <si>
     <t>Can summon pressure.</t>
   </si>
   <si>
     <t>Pressure</t>
   </si>
   <si>
+    <t>压力怪</t>
+  </si>
+  <si>
     <t>Can deal damage according to left HP.</t>
   </si>
   <si>
     <t>Sadness</t>
+  </si>
+  <si>
+    <t>嘤嘤怪</t>
   </si>
 </sst>
 </file>
@@ -1207,27 +1255,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Q18"/>
+  <dimension ref="A2:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="60.2727272727273" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="12.2727272727273" customWidth="1"/>
-    <col min="13" max="13" width="21.8181818181818" customWidth="1"/>
-    <col min="16" max="16" width="23.7272727272727" customWidth="1"/>
-    <col min="17" max="17" width="20.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="17.5454545454545" customWidth="1"/>
+    <col min="4" max="5" width="60.2727272727273" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="12.2727272727273" customWidth="1"/>
+    <col min="15" max="15" width="21.8181818181818" customWidth="1"/>
+    <col min="18" max="18" width="23.7272727272727" customWidth="1"/>
+    <col min="19" max="19" width="20.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,799 +1328,904 @@
       <c r="Q2" t="s">
         <v>16</v>
       </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
+      <c r="S3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>9001</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
         <v>-1</v>
       </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4">
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>9001</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5">
         <v>-1</v>
       </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5">
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5">
         <v>3</v>
       </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1011</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>9002</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
+      <c r="P6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>9002</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1021</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>9101</v>
       </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7">
         <v>-1</v>
       </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7">
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>36</v>
+      <c r="R7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1022</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>9102</v>
       </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8">
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8">
         <v>-1</v>
       </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8">
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8">
         <v>3</v>
       </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>40</v>
+      <c r="R8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1023</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>9103</v>
       </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9">
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9">
         <v>-1</v>
       </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9">
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9">
         <v>3</v>
       </c>
-      <c r="P9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>44</v>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>9104</v>
       </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10">
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10">
         <v>-1</v>
       </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10">
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="P10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>48</v>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>9201</v>
       </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11">
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11">
         <v>-1</v>
       </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11">
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="P11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>52</v>
+      <c r="R11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>8</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>9202</v>
       </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12">
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12">
         <v>-1</v>
       </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12">
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>55</v>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13">
         <v>50</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>9301</v>
       </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13">
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13">
         <v>1001</v>
       </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13">
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13">
         <v>1</v>
       </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>58</v>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14">
         <v>25</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>9302</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" t="s">
         <v>61</v>
       </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14">
-        <v>-1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15">
         <v>75</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>9202</v>
       </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15">
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15">
         <v>1002</v>
       </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15">
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15">
         <v>1</v>
       </c>
-      <c r="P15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>55</v>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16">
         <v>120</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>9901</v>
       </c>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16">
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16">
         <v>-1</v>
       </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16">
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>1</v>
       </c>
-      <c r="P16" t="s">
-        <v>31</v>
+      <c r="R16" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
         <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>9902</v>
       </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17">
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17">
         <v>-1</v>
       </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17">
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17">
         <v>1</v>
       </c>
-      <c r="P17" t="s">
-        <v>27</v>
+      <c r="R17" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>1097</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
         <v>16</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>9302</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
         <v>61</v>
-      </c>
-      <c r="K18" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18">
-        <v>-1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -107,7 +107,10 @@
     <t>链表</t>
   </si>
   <si>
-    <t>Attack near and dying unit with melee attack.</t>
+    <t>Can do melee &lt;sprite="SkillType" name="PDmg"&gt; physical attack.</t>
+  </si>
+  <si>
+    <t>近战 &lt;sprite="SkillType" name="PDmg"&gt; 物理攻击。</t>
   </si>
   <si>
     <t>Normal</t>
@@ -131,7 +134,10 @@
     <t>简历</t>
   </si>
   <si>
-    <t>Can do ranged magic attack.</t>
+    <t>Can do ranged &lt;sprite="SkillType" name="MDmg"&gt; magic attack.</t>
+  </si>
+  <si>
+    <t>远程 &lt;sprite="SkillType" name="MDmg"&gt; 魔法攻击。</t>
   </si>
   <si>
     <t>PixelEvilBoss</t>
@@ -146,7 +152,10 @@
     <t>普通HR</t>
   </si>
   <si>
-    <t>Can do ranged physical attack.</t>
+    <t>Can do ranged &lt;sprite="SkillType" name="PDmg"&gt; physical attack.</t>
+  </si>
+  <si>
+    <t>远程 &lt;sprite="SkillType" name="PDmg"&gt; 物理攻击。</t>
   </si>
   <si>
     <t>pixelHR_Black</t>
@@ -161,7 +170,10 @@
     <t>红色HR</t>
   </si>
   <si>
-    <t>Can spell fire magic and apply Burning.</t>
+    <t>Can spell fire &lt;sprite="SkillType" name="MDmg"&gt; magic and apply &lt;sprite="BuffS" name="Burn"&gt; Burning.</t>
+  </si>
+  <si>
+    <t>咏唱范围火焰 &lt;sprite="SkillType" name="MDmg"&gt; 魔法并附加 &lt;sprite="BuffS" name="Burn"&gt; 灼烧。</t>
   </si>
   <si>
     <t>pixelHR_Red</t>
@@ -176,7 +188,10 @@
     <t>蓝色HR</t>
   </si>
   <si>
-    <t>Can spell water magic and recover HP.</t>
+    <t>Can spell water &lt;sprite="SkillType" name="MDmg"&gt; magic and gain 1 &lt;sprite="BuffS" name="Absorb"&gt; Absorb.</t>
+  </si>
+  <si>
+    <t>咏唱水 &lt;sprite="SkillType" name="MDmg"&gt; 魔法并获得1层 &lt;sprite="BuffS" name="Absorb"&gt; 吸收。</t>
   </si>
   <si>
     <t>pixelHR_Blue</t>
@@ -191,7 +206,10 @@
     <t>黑色HR</t>
   </si>
   <si>
-    <t>Can spell gravity magic to reduce movement.</t>
+    <t>Can spell gravity &lt;sprite="SkillType" name="MDmg"&gt; magic and damage will increase if target's &lt;sprite="Common" name="MOV"&gt; MOV is low.</t>
+  </si>
+  <si>
+    <t>咏唱重力 &lt;sprite="SkillType" name="MDmg"&gt; 魔法，伤害会因为敌方低 &lt;sprite="Common" name="MOV"&gt; 移动力而提升。</t>
   </si>
   <si>
     <t>pixelHR_Purple</t>
@@ -206,7 +224,10 @@
     <t>面试官F</t>
   </si>
   <si>
-    <t>Attack range is super long and will hit farthest unit first.</t>
+    <t>&lt;sprite="SkillType" name="MDmg"&gt; Magic attack with super long range and will hit farthest unit first.</t>
+  </si>
+  <si>
+    <t>&lt;sprite="SkillType" name="MDmg"&gt;魔法攻击，射程巨长，优先攻击最远单位。</t>
   </si>
   <si>
     <t>Farthest</t>
@@ -221,7 +242,10 @@
     <t>面试官M</t>
   </si>
   <si>
-    <t>Can move fast.</t>
+    <t>Can move fast and do melee &lt;sprite="SkillType" name="PDmg"&gt; physical attack.</t>
+  </si>
+  <si>
+    <t>移动速度快，近战 &lt;sprite="SkillType" name="PDmg"&gt; 物理攻击。</t>
   </si>
   <si>
     <t>ani_pf_InterviewM</t>
@@ -230,7 +254,10 @@
     <t>CEO</t>
   </si>
   <si>
-    <t>Can deal high damage but move slow.</t>
+    <t>Can deal high damage but move slow. Gain 8 &lt;sprite="BuffC" name="BuyRES"&gt; BuyRES and &lt;sprite="BuffC" name="BuyDEF"&gt; BuyDEF when battle starts.</t>
+  </si>
+  <si>
+    <t>移动速度慢但攻击力高，战斗开始时买入8层 &lt;sprite="BuffC" name="BuyRES"&gt; 魔防和 &lt;sprite="BuffC" name="BuyDEF"&gt; 防御。</t>
   </si>
   <si>
     <t>ani_pf_CEO</t>
@@ -260,7 +287,10 @@
     <t>秘书M</t>
   </si>
   <si>
-    <t>Get 1 level Angry when turn start.</t>
+    <t>Can do melee &lt;sprite="SkillType" name="PDmg"&gt; physical attack. Get 1 &lt;sprite="BuffS" name="Angry"&gt; Angry when turn start.</t>
+  </si>
+  <si>
+    <t>近战 &lt;sprite="SkillType" name="PDmg"&gt; 物理攻击。回合开始时获得1层 &lt;sprite="BuffS" name="Angry"&gt; 愤怒。</t>
   </si>
   <si>
     <t>Interview</t>
@@ -272,6 +302,9 @@
     <t>Can summon pressure.</t>
   </si>
   <si>
+    <t>能召唤压力。</t>
+  </si>
+  <si>
     <t>Pressure</t>
   </si>
   <si>
@@ -279,6 +312,9 @@
   </si>
   <si>
     <t>Can deal damage according to left HP.</t>
+  </si>
+  <si>
+    <t>根据剩余血量造成伤害。</t>
   </si>
   <si>
     <t>Sadness</t>
@@ -1260,14 +1296,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="17.5454545454545" customWidth="1"/>
-    <col min="4" max="5" width="60.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="101.909090909091" customWidth="1"/>
+    <col min="5" max="5" width="60.2727272727273" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="12.2727272727273" customWidth="1"/>
@@ -1408,7 +1445,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -1429,25 +1466,25 @@
         <v>9001</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <v>-1</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1464,7 +1501,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -1485,25 +1522,25 @@
         <v>9001</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>-1</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5">
         <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1511,16 +1548,16 @@
         <v>1011</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1541,25 +1578,25 @@
         <v>9002</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>-1</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6">
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1567,16 +1604,16 @@
         <v>1021</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -1597,25 +1634,25 @@
         <v>9101</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>-1</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P7">
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1623,16 +1660,16 @@
         <v>1022</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>25</v>
@@ -1653,25 +1690,25 @@
         <v>9102</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>-1</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1679,16 +1716,16 @@
         <v>1023</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>25</v>
@@ -1709,25 +1746,25 @@
         <v>9103</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>-1</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9">
         <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1735,16 +1772,16 @@
         <v>1024</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>25</v>
@@ -1765,25 +1802,25 @@
         <v>9104</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>-1</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P10">
         <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1791,16 +1828,16 @@
         <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -1821,25 +1858,25 @@
         <v>9201</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>-1</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1847,16 +1884,16 @@
         <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>45</v>
@@ -1877,25 +1914,25 @@
         <v>9202</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>-1</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1903,16 +1940,16 @@
         <v>1041</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -1933,25 +1970,25 @@
         <v>9301</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1001</v>
       </c>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1959,16 +1996,16 @@
         <v>1042</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>25</v>
@@ -1989,25 +2026,25 @@
         <v>9302</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>-1</v>
       </c>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2015,16 +2052,16 @@
         <v>1043</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15">
         <v>75</v>
@@ -2045,25 +2082,25 @@
         <v>9202</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1002</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2071,16 +2108,16 @@
         <v>1099</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>120</v>
@@ -2101,16 +2138,16 @@
         <v>9901</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>-1</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P16">
         <v>3</v>
@@ -2119,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2127,16 +2164,16 @@
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -2157,22 +2194,22 @@
         <v>9902</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>-1</v>
       </c>
       <c r="O17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2180,16 +2217,16 @@
         <v>1097</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F18">
         <v>16</v>
@@ -2210,22 +2247,22 @@
         <v>9302</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="N18">
         <v>-1</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Foe.xlsx
+++ b/Assets/Excel/Foe.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
   <si>
     <t>id</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>能召唤压力。</t>
+  </si>
+  <si>
+    <t>ani_pf_God</t>
   </si>
   <si>
     <t>Pressure</t>
@@ -1294,9 +1297,9 @@
   <dimension ref="A2:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2103,7 +2106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>1099</v>
       </c>
@@ -2155,8 +2158,8 @@
       <c r="Q16">
         <v>1</v>
       </c>
-      <c r="R16" t="s">
-        <v>37</v>
+      <c r="S16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2164,16 +2167,16 @@
         <v>1098</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -2209,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2217,10 +2220,10 @@
         <v>1097</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
